--- a/PG.xlsx
+++ b/PG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50966A97-FBFD-42F9-A814-6AE898C3474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F0D97A-E369-4107-87DE-9909DB9C9BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{0F7B74EE-26C4-43C0-8ED2-7F3AED04CA51}"/>
+    <workbookView xWindow="20340" yWindow="710" windowWidth="18060" windowHeight="20070" activeTab="1" xr2:uid="{0F7B74EE-26C4-43C0-8ED2-7F3AED04CA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Price</t>
   </si>
@@ -216,7 +216,19 @@
     <t>F2019</t>
   </si>
   <si>
-    <t>Q125</t>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>FQ326</t>
+  </si>
+  <si>
+    <t>FQ426</t>
+  </si>
+  <si>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -330,16 +342,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>27878</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>51110</xdr:rowOff>
+      <xdr:rowOff>1414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>27878</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>13939</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -354,8 +366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7861610" y="51110"/>
-          <a:ext cx="0" cy="5491975"/>
+          <a:off x="10033269" y="1414"/>
+          <a:ext cx="0" cy="5412786"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -380,13 +392,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>3718</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>3718</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>125451</xdr:rowOff>
@@ -750,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C84179-C1EB-4454-8C02-B04DCE01CA01}">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -786,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="4">
-        <v>2344.5420340000001</v>
+        <v>2437</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -804,7 +816,7 @@
       </c>
       <c r="M4" s="4">
         <f>+M2*M3</f>
-        <v>372782.18340600003</v>
+        <v>387483</v>
       </c>
       <c r="N4" s="7"/>
     </row>
@@ -819,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="4">
-        <v>9116</v>
+        <v>11171</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -836,11 +848,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="4">
-        <f>9889+24252</f>
-        <v>34141</v>
+        <f>11631+24315</f>
+        <v>35946</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -849,7 +861,7 @@
       </c>
       <c r="M7" s="4">
         <f>+M4-M5+M6</f>
-        <v>397807.18340600003</v>
+        <v>412258</v>
       </c>
     </row>
   </sheetData>
@@ -859,13 +871,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC77FE65-C0ED-444A-9B0C-D803DA7CC682}">
-  <dimension ref="A1:DZ30"/>
+  <dimension ref="A1:ED30"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -873,20 +885,20 @@
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="14" width="8.453125" style="1" customWidth="1"/>
-    <col min="15" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="22" width="9.1796875" style="7"/>
-    <col min="23" max="25" width="9.1796875" style="1"/>
-    <col min="26" max="26" width="9.26953125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="10" max="18" width="8.453125" style="1" customWidth="1"/>
+    <col min="19" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="26" width="9.1796875" style="7"/>
+    <col min="27" max="29" width="9.1796875" style="1"/>
+    <col min="30" max="30" width="9.26953125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="C2" s="7" t="s">
         <v>40</v>
@@ -924,29 +936,41 @@
       <c r="N2" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="P2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>44834</v>
       </c>
@@ -983,31 +1007,47 @@
       <c r="N3" s="3">
         <v>45838</v>
       </c>
-      <c r="P3" s="11">
+      <c r="O3" s="3">
+        <f>+K3+365</f>
+        <v>45930</v>
+      </c>
+      <c r="P3" s="3">
+        <f>+L3+365</f>
+        <v>46022</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>+M3+365</f>
+        <v>46112</v>
+      </c>
+      <c r="R3" s="3">
+        <f>+N3+365</f>
+        <v>46203</v>
+      </c>
+      <c r="T3" s="11">
         <v>43646</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="U3" s="11">
         <v>44012</v>
       </c>
-      <c r="R3" s="11">
+      <c r="V3" s="11">
         <v>44377</v>
       </c>
-      <c r="S3" s="11">
+      <c r="W3" s="11">
         <v>44742</v>
       </c>
-      <c r="T3" s="11">
+      <c r="X3" s="11">
         <v>45107</v>
       </c>
-      <c r="U3" s="11">
-        <f>+T3+366</f>
+      <c r="Y3" s="11">
+        <f>+X3+366</f>
         <v>45473</v>
       </c>
-      <c r="V3" s="11">
-        <f>+U3+365</f>
+      <c r="Z3" s="11">
+        <f>+Y3+365</f>
         <v>45838</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1023,15 +1063,24 @@
       <c r="L4" s="4">
         <v>3848</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="M4" s="4">
+        <v>3490</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3733</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4143</v>
+      </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1047,15 +1096,24 @@
       <c r="L5" s="4">
         <v>1752</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="M5" s="4">
+        <v>1505</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1683</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1817</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-    </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1071,15 +1129,24 @@
       <c r="L6" s="4">
         <v>3249</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="M6" s="4">
+        <v>2880</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2722</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3220</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1095,15 +1162,24 @@
       <c r="L7" s="4">
         <v>7575</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="M7" s="4">
+        <v>6948</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7385</v>
+      </c>
+      <c r="O7" s="4">
+        <v>7793</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-    </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1119,15 +1195,24 @@
       <c r="L8" s="4">
         <v>5298</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="M8" s="4">
+        <v>4755</v>
+      </c>
+      <c r="N8" s="4">
+        <v>5093</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5171</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1143,15 +1228,24 @@
       <c r="L9" s="4">
         <v>159</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="M9" s="4">
+        <v>198</v>
+      </c>
+      <c r="N9" s="4">
+        <v>274</v>
+      </c>
+      <c r="O9" s="4">
+        <v>242</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1190,39 +1284,55 @@
         <v>21881</v>
       </c>
       <c r="M10" s="5">
-        <f>+I10*1.03</f>
-        <v>20800.850000000002</v>
+        <f>SUM(M4:M9)</f>
+        <v>19776</v>
       </c>
       <c r="N10" s="5">
-        <f>+J10*1.03</f>
-        <v>21146.93</v>
-      </c>
-      <c r="P10" s="10">
+        <f>SUM(N4:N9)</f>
+        <v>20890</v>
+      </c>
+      <c r="O10" s="5">
+        <f>SUM(O4:O9)</f>
+        <v>22386</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" ref="O10:R10" si="0">+L10*1.03</f>
+        <v>22537.43</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="0"/>
+        <v>20369.28</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="0"/>
+        <v>21516.7</v>
+      </c>
+      <c r="T10" s="10">
         <v>67684</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="U10" s="10">
         <v>70950</v>
       </c>
-      <c r="R10" s="10">
+      <c r="V10" s="10">
         <v>76118</v>
       </c>
-      <c r="S10" s="10">
+      <c r="W10" s="10">
         <v>80187</v>
       </c>
-      <c r="T10" s="10">
+      <c r="X10" s="10">
         <f>SUM(C10:F10)</f>
         <v>82006</v>
       </c>
-      <c r="U10" s="10">
+      <c r="Y10" s="10">
         <f>SUM(G10:J10)</f>
         <v>84038</v>
       </c>
-      <c r="V10" s="10">
+      <c r="Z10" s="10">
         <f>SUM(K10:N10)</f>
-        <v>85565.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1257,118 +1367,125 @@
         <v>10418</v>
       </c>
       <c r="M11" s="4">
-        <v>10421</v>
+        <v>9694</v>
       </c>
       <c r="N11" s="4">
-        <v>10418</v>
-      </c>
-      <c r="P11" s="9">
+        <v>10631</v>
+      </c>
+      <c r="O11" s="4">
+        <v>10887</v>
+      </c>
+      <c r="T11" s="9">
         <v>34768</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="U11" s="9">
         <v>35250</v>
       </c>
-      <c r="R11" s="9">
+      <c r="V11" s="9">
         <v>37108</v>
       </c>
-      <c r="S11" s="9">
+      <c r="W11" s="9">
         <v>42157</v>
       </c>
-      <c r="T11" s="9">
+      <c r="X11" s="9">
         <f>SUM(C11:F11)</f>
         <v>42760</v>
       </c>
-      <c r="U11" s="9">
+      <c r="Y11" s="9">
         <f>SUM(G11:J11)</f>
         <v>40848</v>
       </c>
-      <c r="V11" s="9">
+      <c r="Z11" s="9">
         <f>SUM(K11:N11)</f>
-        <v>41678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:N12" si="0">+C10-C11</f>
+        <f t="shared" ref="C12:O12" si="1">+C10-C11</f>
         <v>9766</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9876</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9664</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9940</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11370</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11297</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10340</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10183</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11316</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11463</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>10379.850000000002</v>
+        <f t="shared" si="1"/>
+        <v>10082</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>10728.93</v>
-      </c>
-      <c r="P12" s="9">
-        <f t="shared" ref="P12:V12" si="1">+P10-P11</f>
+        <f t="shared" si="1"/>
+        <v>10259</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>11499</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" ref="T12:Z12" si="2">+T10-T11</f>
         <v>32916</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="1"/>
+      <c r="U12" s="9">
+        <f t="shared" si="2"/>
         <v>35700</v>
       </c>
-      <c r="R12" s="9">
-        <f t="shared" si="1"/>
+      <c r="V12" s="9">
+        <f t="shared" si="2"/>
         <v>39010</v>
       </c>
-      <c r="S12" s="9">
-        <f t="shared" si="1"/>
+      <c r="W12" s="9">
+        <f t="shared" si="2"/>
         <v>38030</v>
       </c>
-      <c r="T12" s="9">
-        <f t="shared" si="1"/>
+      <c r="X12" s="9">
+        <f t="shared" si="2"/>
         <v>39246</v>
       </c>
-      <c r="U12" s="9">
-        <f t="shared" si="1"/>
+      <c r="Y12" s="9">
+        <f t="shared" si="2"/>
         <v>43190</v>
       </c>
-      <c r="V12" s="9">
-        <f t="shared" si="1"/>
-        <v>43887.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="9">
+        <f t="shared" si="2"/>
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1403,118 +1520,125 @@
         <v>5723</v>
       </c>
       <c r="M13" s="4">
-        <v>5519</v>
+        <v>5524</v>
       </c>
       <c r="N13" s="4">
-        <v>5723</v>
-      </c>
-      <c r="P13" s="9">
+        <v>5903</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5643</v>
+      </c>
+      <c r="T13" s="9">
         <v>19084</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="U13" s="9">
         <v>19994</v>
       </c>
-      <c r="R13" s="9">
+      <c r="V13" s="9">
         <v>21024</v>
       </c>
-      <c r="S13" s="9">
+      <c r="W13" s="9">
         <v>20217</v>
       </c>
-      <c r="T13" s="9">
+      <c r="X13" s="9">
         <f>SUM(C13:F13)</f>
         <v>21112</v>
       </c>
-      <c r="U13" s="9">
+      <c r="Y13" s="9">
         <f>SUM(G13:J13)</f>
         <v>23305</v>
       </c>
-      <c r="V13" s="9">
+      <c r="Z13" s="9">
         <f>SUM(K13:N13)</f>
-        <v>22484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>22669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:N14" si="2">+C12-C13</f>
+        <f t="shared" ref="C14:O14" si="3">+C12-C13</f>
         <v>4939</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4785</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4248</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4162</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5766</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5775</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4460</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3884</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5797</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5740</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="2"/>
-        <v>4860.8500000000022</v>
+        <f t="shared" si="3"/>
+        <v>4558</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
-        <v>5005.93</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" ref="P14:V14" si="3">+P12-P13</f>
+        <f t="shared" si="3"/>
+        <v>4356</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="3"/>
+        <v>5856</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" ref="T14:Z14" si="4">+T12-T13</f>
         <v>13832</v>
       </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="3"/>
+      <c r="U14" s="9">
+        <f t="shared" si="4"/>
         <v>15706</v>
       </c>
-      <c r="R14" s="9">
-        <f t="shared" si="3"/>
+      <c r="V14" s="9">
+        <f t="shared" si="4"/>
         <v>17986</v>
       </c>
-      <c r="S14" s="9">
-        <f t="shared" si="3"/>
+      <c r="W14" s="9">
+        <f t="shared" si="4"/>
         <v>17813</v>
       </c>
-      <c r="T14" s="9">
-        <f t="shared" si="3"/>
+      <c r="X14" s="9">
+        <f t="shared" si="4"/>
         <v>18134</v>
       </c>
-      <c r="U14" s="9">
-        <f t="shared" si="3"/>
+      <c r="Y14" s="9">
+        <f t="shared" si="4"/>
         <v>19885</v>
       </c>
-      <c r="V14" s="9">
-        <f t="shared" si="3"/>
-        <v>21403.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z14" s="9">
+        <f t="shared" si="4"/>
+        <v>20451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1559,124 +1683,135 @@
         <v>103</v>
       </c>
       <c r="M15" s="1">
-        <f>-238+135-554</f>
-        <v>-657</v>
+        <f>-217+111</f>
+        <v>-106</v>
       </c>
       <c r="N15" s="1">
-        <f>-240+119+224</f>
-        <v>103</v>
-      </c>
-      <c r="P15" s="9">
+        <f>-212+104</f>
+        <v>-108</v>
+      </c>
+      <c r="O15" s="1">
+        <f>-197+108</f>
+        <v>-89</v>
+      </c>
+      <c r="T15" s="9">
         <f>-509+220+871</f>
         <v>582</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="U15" s="9">
         <f>-465+155+438</f>
         <v>128</v>
       </c>
-      <c r="R15" s="9">
+      <c r="V15" s="9">
         <f>-502+45+86</f>
         <v>-371</v>
       </c>
-      <c r="S15" s="9">
+      <c r="W15" s="9">
         <f>-439+51+570</f>
         <v>182</v>
       </c>
-      <c r="T15" s="9">
+      <c r="X15" s="9">
         <f>SUM(C15:F15)</f>
         <v>219</v>
       </c>
-      <c r="U15" s="9">
+      <c r="Y15" s="9">
         <f>SUM(G15:J15)</f>
         <v>113</v>
       </c>
-      <c r="V15" s="9">
+      <c r="Z15" s="9">
         <f>SUM(K15:N15)</f>
-        <v>-1108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:N16" si="4">+C14+C15</f>
+        <f t="shared" ref="C16:O16" si="5">+C14+C15</f>
         <v>4997</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4835</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4288</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4233</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5801</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5737</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4591</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3869</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5140</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5843</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="4"/>
-        <v>4203.8500000000022</v>
+        <f t="shared" si="5"/>
+        <v>4452</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="4"/>
-        <v>5108.93</v>
-      </c>
-      <c r="P16" s="9">
-        <f>+P14+P15</f>
-        <v>14414</v>
-      </c>
-      <c r="Q16" s="9">
-        <f>+Q14+Q15</f>
-        <v>15834</v>
-      </c>
-      <c r="R16" s="9">
-        <f>+R14+R15</f>
-        <v>17615</v>
-      </c>
-      <c r="S16" s="9">
-        <f>+S14+S15</f>
-        <v>17995</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>4248</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="5"/>
+        <v>5767</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
       <c r="T16" s="9">
         <f>+T14+T15</f>
+        <v>14414</v>
+      </c>
+      <c r="U16" s="9">
+        <f>+U14+U15</f>
+        <v>15834</v>
+      </c>
+      <c r="V16" s="9">
+        <f>+V14+V15</f>
+        <v>17615</v>
+      </c>
+      <c r="W16" s="9">
+        <f>+W14+W15</f>
+        <v>17995</v>
+      </c>
+      <c r="X16" s="9">
+        <f>+X14+X15</f>
         <v>18353</v>
       </c>
-      <c r="U16" s="9">
-        <f t="shared" ref="U16:V16" si="5">+U14+U15</f>
+      <c r="Y16" s="9">
+        <f t="shared" ref="Y16:Z16" si="6">+Y14+Y15</f>
         <v>19998</v>
       </c>
-      <c r="V16" s="9">
-        <f t="shared" si="5"/>
-        <v>20295.78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:130" x14ac:dyDescent="0.25">
+      <c r="Z16" s="9">
+        <f t="shared" si="6"/>
+        <v>19683</v>
+      </c>
+    </row>
+    <row r="17" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1721,637 +1856,658 @@
         <v>1216</v>
       </c>
       <c r="M17" s="4">
-        <f>1152+28</f>
-        <v>1180</v>
+        <f>868+23</f>
+        <v>891</v>
       </c>
       <c r="N17" s="4">
-        <f>1187+29</f>
-        <v>1216</v>
-      </c>
-      <c r="P17" s="9">
+        <f>895+11</f>
+        <v>906</v>
+      </c>
+      <c r="O17" s="4">
+        <f>1253+31</f>
+        <v>1284</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="T17" s="9">
         <f>2103+69</f>
         <v>2172</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="U17" s="9">
         <f>2731+76</f>
         <v>2807</v>
       </c>
-      <c r="R17" s="9">
+      <c r="V17" s="9">
         <f>3263+46</f>
         <v>3309</v>
       </c>
-      <c r="S17" s="9">
+      <c r="W17" s="9">
         <f>3202+51</f>
         <v>3253</v>
       </c>
-      <c r="T17" s="9">
+      <c r="X17" s="9">
         <f>SUM(C17:F17)</f>
         <v>3700</v>
       </c>
-      <c r="U17" s="9">
+      <c r="Y17" s="9">
         <f>SUM(G17:J17)</f>
         <v>3881</v>
       </c>
-      <c r="V17" s="9">
+      <c r="Z17" s="9">
         <f>SUM(K17:N17)</f>
-        <v>4792</v>
-      </c>
-    </row>
-    <row r="18" spans="2:130" x14ac:dyDescent="0.25">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:N18" si="6">+C16-C17</f>
+        <f t="shared" ref="C18:O18" si="7">+C16-C17</f>
         <v>3939</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3933</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3397</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3384</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4520</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4709</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3752</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3136</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3960</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4627</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="6"/>
-        <v>3023.8500000000022</v>
+        <f t="shared" si="7"/>
+        <v>3561</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="6"/>
-        <v>3892.9300000000003</v>
-      </c>
-      <c r="P18" s="9">
-        <f t="shared" ref="P18:V18" si="7">+P16-P17</f>
+        <f t="shared" si="7"/>
+        <v>3342</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="7"/>
+        <v>4483</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="T18" s="9">
+        <f t="shared" ref="T18:Z18" si="8">+T16-T17</f>
         <v>12242</v>
       </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="7"/>
+      <c r="U18" s="9">
+        <f t="shared" si="8"/>
         <v>13027</v>
       </c>
-      <c r="R18" s="9">
-        <f t="shared" si="7"/>
+      <c r="V18" s="9">
+        <f t="shared" si="8"/>
         <v>14306</v>
       </c>
-      <c r="S18" s="9">
-        <f t="shared" si="7"/>
+      <c r="W18" s="9">
+        <f t="shared" si="8"/>
         <v>14742</v>
       </c>
-      <c r="T18" s="9">
-        <f t="shared" si="7"/>
+      <c r="X18" s="9">
+        <f t="shared" si="8"/>
         <v>14653</v>
       </c>
-      <c r="U18" s="9">
-        <f t="shared" si="7"/>
+      <c r="Y18" s="9">
+        <f t="shared" si="8"/>
         <v>16117</v>
       </c>
-      <c r="V18" s="9">
-        <f t="shared" si="7"/>
-        <v>15503.779999999999</v>
-      </c>
-      <c r="W18" s="4">
-        <f>+V18*(1+$Z$25)</f>
-        <v>15813.855599999999</v>
-      </c>
-      <c r="X18" s="4">
-        <f t="shared" ref="X18:CI18" si="8">+W18*(1+$Z$25)</f>
-        <v>16130.132711999999</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="Z18" s="9">
         <f t="shared" si="8"/>
-        <v>16452.735366239998</v>
-      </c>
-      <c r="Z18" s="4">
-        <f t="shared" si="8"/>
-        <v>16781.7900735648</v>
+        <v>15490</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="8"/>
-        <v>17117.425875036097</v>
+        <f>+Z18*(1+$AD$25)</f>
+        <v>15799.800000000001</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="8"/>
-        <v>17459.77439253682</v>
+        <f t="shared" ref="AB18:CM18" si="9">+AA18*(1+$AD$25)</f>
+        <v>16115.796000000002</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="8"/>
-        <v>17808.969880387554</v>
+        <f t="shared" si="9"/>
+        <v>16438.111920000003</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="8"/>
-        <v>18165.149277995304</v>
+        <f t="shared" si="9"/>
+        <v>16766.874158400002</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="8"/>
-        <v>18528.452263555209</v>
+        <f t="shared" si="9"/>
+        <v>17102.211641568003</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="8"/>
-        <v>18899.021308826315</v>
+        <f t="shared" si="9"/>
+        <v>17444.255874399365</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="8"/>
-        <v>19277.001735002843</v>
+        <f t="shared" si="9"/>
+        <v>17793.140991887354</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="8"/>
-        <v>19662.541769702901</v>
+        <f t="shared" si="9"/>
+        <v>18149.003811725102</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="8"/>
-        <v>20055.792605096958</v>
+        <f t="shared" si="9"/>
+        <v>18511.983887959606</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="8"/>
-        <v>20456.908457198897</v>
+        <f t="shared" si="9"/>
+        <v>18882.223565718799</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="8"/>
-        <v>20866.046626342875</v>
+        <f t="shared" si="9"/>
+        <v>19259.868037033175</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="8"/>
-        <v>21283.367558869733</v>
+        <f t="shared" si="9"/>
+        <v>19645.06539777384</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="8"/>
-        <v>21709.034910047129</v>
+        <f t="shared" si="9"/>
+        <v>20037.966705729319</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="8"/>
-        <v>22143.215608248072</v>
+        <f t="shared" si="9"/>
+        <v>20438.726039843907</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="8"/>
-        <v>22586.079920413034</v>
+        <f t="shared" si="9"/>
+        <v>20847.500560640787</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="8"/>
-        <v>23037.801518821296</v>
+        <f t="shared" si="9"/>
+        <v>21264.450571853602</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="8"/>
-        <v>23498.557549197722</v>
+        <f t="shared" si="9"/>
+        <v>21689.739583290673</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="8"/>
-        <v>23968.528700181676</v>
+        <f t="shared" si="9"/>
+        <v>22123.534374956485</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="8"/>
-        <v>24447.899274185311</v>
+        <f t="shared" si="9"/>
+        <v>22566.005062455617</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="8"/>
-        <v>24936.857259669017</v>
+        <f t="shared" si="9"/>
+        <v>23017.325163704729</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="8"/>
-        <v>25435.594404862397</v>
+        <f t="shared" si="9"/>
+        <v>23477.671666978822</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="8"/>
-        <v>25944.306292959645</v>
+        <f t="shared" si="9"/>
+        <v>23947.225100318399</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" si="8"/>
-        <v>26463.192418818839</v>
+        <f t="shared" si="9"/>
+        <v>24426.169602324768</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="8"/>
-        <v>26992.456267195215</v>
+        <f t="shared" si="9"/>
+        <v>24914.692994371264</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="8"/>
-        <v>27532.305392539121</v>
+        <f t="shared" si="9"/>
+        <v>25412.986854258688</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="8"/>
-        <v>28082.951500389903</v>
+        <f t="shared" si="9"/>
+        <v>25921.246591343861</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="8"/>
-        <v>28644.610530397702</v>
+        <f t="shared" si="9"/>
+        <v>26439.671523170739</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="8"/>
-        <v>29217.502741005657</v>
+        <f t="shared" si="9"/>
+        <v>26968.464953634153</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="8"/>
-        <v>29801.852795825773</v>
+        <f t="shared" si="9"/>
+        <v>27507.834252706838</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="8"/>
-        <v>30397.889851742289</v>
+        <f t="shared" si="9"/>
+        <v>28057.990937760977</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="8"/>
-        <v>31005.847648777137</v>
+        <f t="shared" si="9"/>
+        <v>28619.150756516196</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" si="8"/>
-        <v>31625.964601752679</v>
+        <f t="shared" si="9"/>
+        <v>29191.533771646518</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="8"/>
-        <v>32258.483893787732</v>
+        <f t="shared" si="9"/>
+        <v>29775.36444707945</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="8"/>
-        <v>32903.65357166349</v>
+        <f t="shared" si="9"/>
+        <v>30370.871736021039</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="8"/>
-        <v>33561.726643096757</v>
+        <f t="shared" si="9"/>
+        <v>30978.28917074146</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="8"/>
-        <v>34232.961175958691</v>
+        <f t="shared" si="9"/>
+        <v>31597.85495415629</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="8"/>
-        <v>34917.620399477863</v>
+        <f t="shared" si="9"/>
+        <v>32229.812053239417</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="8"/>
-        <v>35615.97280746742</v>
+        <f t="shared" si="9"/>
+        <v>32874.408294304209</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="8"/>
-        <v>36328.292263616771</v>
+        <f t="shared" si="9"/>
+        <v>33531.896460190292</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="8"/>
-        <v>37054.858108889108</v>
+        <f t="shared" si="9"/>
+        <v>34202.534389394095</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="8"/>
-        <v>37795.955271066894</v>
+        <f t="shared" si="9"/>
+        <v>34886.585077181975</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="8"/>
-        <v>38551.874376488231</v>
+        <f t="shared" si="9"/>
+        <v>35584.316778725617</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="8"/>
-        <v>39322.911864017995</v>
+        <f t="shared" si="9"/>
+        <v>36296.003114300132</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="8"/>
-        <v>40109.370101298358</v>
+        <f t="shared" si="9"/>
+        <v>37021.923176586133</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="8"/>
-        <v>40911.557503324329</v>
+        <f t="shared" si="9"/>
+        <v>37762.361640117859</v>
       </c>
       <c r="BT18" s="4">
-        <f t="shared" si="8"/>
-        <v>41729.788653390817</v>
+        <f t="shared" si="9"/>
+        <v>38517.608872920217</v>
       </c>
       <c r="BU18" s="4">
-        <f t="shared" si="8"/>
-        <v>42564.384426458637</v>
+        <f t="shared" si="9"/>
+        <v>39287.961050378624</v>
       </c>
       <c r="BV18" s="4">
-        <f t="shared" si="8"/>
-        <v>43415.672114987814</v>
+        <f t="shared" si="9"/>
+        <v>40073.720271386199</v>
       </c>
       <c r="BW18" s="4">
-        <f t="shared" si="8"/>
-        <v>44283.985557287568</v>
+        <f t="shared" si="9"/>
+        <v>40875.194676813924</v>
       </c>
       <c r="BX18" s="4">
-        <f t="shared" si="8"/>
-        <v>45169.665268433317</v>
+        <f t="shared" si="9"/>
+        <v>41692.698570350207</v>
       </c>
       <c r="BY18" s="4">
-        <f t="shared" si="8"/>
-        <v>46073.058573801987</v>
+        <f t="shared" si="9"/>
+        <v>42526.552541757213</v>
       </c>
       <c r="BZ18" s="4">
-        <f t="shared" si="8"/>
-        <v>46994.519745278027</v>
+        <f t="shared" si="9"/>
+        <v>43377.08359259236</v>
       </c>
       <c r="CA18" s="4">
-        <f t="shared" si="8"/>
-        <v>47934.410140183587</v>
+        <f t="shared" si="9"/>
+        <v>44244.625264444207</v>
       </c>
       <c r="CB18" s="4">
-        <f t="shared" si="8"/>
-        <v>48893.098342987258</v>
+        <f t="shared" si="9"/>
+        <v>45129.517769733095</v>
       </c>
       <c r="CC18" s="4">
-        <f t="shared" si="8"/>
-        <v>49870.960309847003</v>
+        <f t="shared" si="9"/>
+        <v>46032.108125127757</v>
       </c>
       <c r="CD18" s="4">
-        <f t="shared" si="8"/>
-        <v>50868.379516043948</v>
+        <f t="shared" si="9"/>
+        <v>46952.750287630312</v>
       </c>
       <c r="CE18" s="4">
-        <f t="shared" si="8"/>
-        <v>51885.747106364826</v>
+        <f t="shared" si="9"/>
+        <v>47891.805293382917</v>
       </c>
       <c r="CF18" s="4">
-        <f t="shared" si="8"/>
-        <v>52923.462048492125</v>
+        <f t="shared" si="9"/>
+        <v>48849.641399250577</v>
       </c>
       <c r="CG18" s="4">
-        <f t="shared" si="8"/>
-        <v>53981.931289461965</v>
+        <f t="shared" si="9"/>
+        <v>49826.634227235591</v>
       </c>
       <c r="CH18" s="4">
-        <f t="shared" si="8"/>
-        <v>55061.569915251202</v>
+        <f t="shared" si="9"/>
+        <v>50823.166911780303</v>
       </c>
       <c r="CI18" s="4">
-        <f t="shared" si="8"/>
-        <v>56162.801313556229</v>
+        <f t="shared" si="9"/>
+        <v>51839.630250015907</v>
       </c>
       <c r="CJ18" s="4">
-        <f t="shared" ref="CJ18:DZ18" si="9">+CI18*(1+$Z$25)</f>
-        <v>57286.057339827355</v>
+        <f t="shared" si="9"/>
+        <v>52876.42285501623</v>
       </c>
       <c r="CK18" s="4">
         <f t="shared" si="9"/>
-        <v>58431.778486623902</v>
+        <v>53933.951312116558</v>
       </c>
       <c r="CL18" s="4">
         <f t="shared" si="9"/>
-        <v>59600.414056356378</v>
+        <v>55012.630338358889</v>
       </c>
       <c r="CM18" s="4">
         <f t="shared" si="9"/>
-        <v>60792.422337483506</v>
+        <v>56112.882945126068</v>
       </c>
       <c r="CN18" s="4">
-        <f t="shared" si="9"/>
-        <v>62008.27078423318</v>
+        <f t="shared" ref="CN18:ED18" si="10">+CM18*(1+$AD$25)</f>
+        <v>57235.140604028587</v>
       </c>
       <c r="CO18" s="4">
-        <f t="shared" si="9"/>
-        <v>63248.436199917844</v>
+        <f t="shared" si="10"/>
+        <v>58379.843416109157</v>
       </c>
       <c r="CP18" s="4">
-        <f t="shared" si="9"/>
-        <v>64513.404923916205</v>
+        <f t="shared" si="10"/>
+        <v>59547.440284431344</v>
       </c>
       <c r="CQ18" s="4">
-        <f t="shared" si="9"/>
-        <v>65803.673022394534</v>
+        <f t="shared" si="10"/>
+        <v>60738.38909011997</v>
       </c>
       <c r="CR18" s="4">
-        <f t="shared" si="9"/>
-        <v>67119.746482842427</v>
+        <f t="shared" si="10"/>
+        <v>61953.156871922372</v>
       </c>
       <c r="CS18" s="4">
-        <f t="shared" si="9"/>
-        <v>68462.141412499273</v>
+        <f t="shared" si="10"/>
+        <v>63192.220009360819</v>
       </c>
       <c r="CT18" s="4">
-        <f t="shared" si="9"/>
-        <v>69831.384240749263</v>
+        <f t="shared" si="10"/>
+        <v>64456.064409548038</v>
       </c>
       <c r="CU18" s="4">
-        <f t="shared" si="9"/>
-        <v>71228.011925564249</v>
+        <f t="shared" si="10"/>
+        <v>65745.185697738998</v>
       </c>
       <c r="CV18" s="4">
-        <f t="shared" si="9"/>
-        <v>72652.572164075536</v>
+        <f t="shared" si="10"/>
+        <v>67060.089411693785</v>
       </c>
       <c r="CW18" s="4">
-        <f t="shared" si="9"/>
-        <v>74105.623607357047</v>
+        <f t="shared" si="10"/>
+        <v>68401.291199927669</v>
       </c>
       <c r="CX18" s="4">
-        <f t="shared" si="9"/>
-        <v>75587.73607950419</v>
+        <f t="shared" si="10"/>
+        <v>69769.317023926225</v>
       </c>
       <c r="CY18" s="4">
-        <f t="shared" si="9"/>
-        <v>77099.490801094275</v>
+        <f t="shared" si="10"/>
+        <v>71164.703364404748</v>
       </c>
       <c r="CZ18" s="4">
-        <f t="shared" si="9"/>
-        <v>78641.480617116162</v>
+        <f t="shared" si="10"/>
+        <v>72587.997431692842</v>
       </c>
       <c r="DA18" s="4">
-        <f t="shared" si="9"/>
-        <v>80214.310229458482</v>
+        <f t="shared" si="10"/>
+        <v>74039.757380326701</v>
       </c>
       <c r="DB18" s="4">
-        <f t="shared" si="9"/>
-        <v>81818.596434047649</v>
+        <f t="shared" si="10"/>
+        <v>75520.552527933236</v>
       </c>
       <c r="DC18" s="4">
-        <f t="shared" si="9"/>
-        <v>83454.968362728599</v>
+        <f t="shared" si="10"/>
+        <v>77030.963578491908</v>
       </c>
       <c r="DD18" s="4">
-        <f t="shared" si="9"/>
-        <v>85124.067729983173</v>
+        <f t="shared" si="10"/>
+        <v>78571.58285006175</v>
       </c>
       <c r="DE18" s="4">
-        <f t="shared" si="9"/>
-        <v>86826.549084582832</v>
+        <f t="shared" si="10"/>
+        <v>80143.014507062981</v>
       </c>
       <c r="DF18" s="4">
-        <f t="shared" si="9"/>
-        <v>88563.080066274488</v>
+        <f t="shared" si="10"/>
+        <v>81745.874797204247</v>
       </c>
       <c r="DG18" s="4">
-        <f t="shared" si="9"/>
-        <v>90334.341667599976</v>
+        <f t="shared" si="10"/>
+        <v>83380.792293148334</v>
       </c>
       <c r="DH18" s="4">
-        <f t="shared" si="9"/>
-        <v>92141.028500951972</v>
+        <f t="shared" si="10"/>
+        <v>85048.408139011299</v>
       </c>
       <c r="DI18" s="4">
-        <f t="shared" si="9"/>
-        <v>93983.849070971017</v>
+        <f t="shared" si="10"/>
+        <v>86749.376301791533</v>
       </c>
       <c r="DJ18" s="4">
-        <f t="shared" si="9"/>
-        <v>95863.526052390444</v>
+        <f t="shared" si="10"/>
+        <v>88484.363827827372</v>
       </c>
       <c r="DK18" s="4">
-        <f t="shared" si="9"/>
-        <v>97780.79657343826</v>
+        <f t="shared" si="10"/>
+        <v>90254.051104383921</v>
       </c>
       <c r="DL18" s="4">
-        <f t="shared" si="9"/>
-        <v>99736.412504907028</v>
+        <f t="shared" si="10"/>
+        <v>92059.132126471595</v>
       </c>
       <c r="DM18" s="4">
-        <f t="shared" si="9"/>
-        <v>101731.14075500517</v>
+        <f t="shared" si="10"/>
+        <v>93900.314769001023</v>
       </c>
       <c r="DN18" s="4">
-        <f t="shared" si="9"/>
-        <v>103765.76357010528</v>
+        <f t="shared" si="10"/>
+        <v>95778.321064381045</v>
       </c>
       <c r="DO18" s="4">
-        <f t="shared" si="9"/>
-        <v>105841.07884150739</v>
+        <f t="shared" si="10"/>
+        <v>97693.887485668674</v>
       </c>
       <c r="DP18" s="4">
-        <f t="shared" si="9"/>
-        <v>107957.90041833754</v>
+        <f t="shared" si="10"/>
+        <v>99647.765235382045</v>
       </c>
       <c r="DQ18" s="4">
-        <f t="shared" si="9"/>
-        <v>110117.05842670429</v>
+        <f t="shared" si="10"/>
+        <v>101640.72054008969</v>
       </c>
       <c r="DR18" s="4">
-        <f t="shared" si="9"/>
-        <v>112319.39959523837</v>
+        <f t="shared" si="10"/>
+        <v>103673.5349508915</v>
       </c>
       <c r="DS18" s="4">
-        <f t="shared" si="9"/>
-        <v>114565.78758714315</v>
+        <f t="shared" si="10"/>
+        <v>105747.00564990933</v>
       </c>
       <c r="DT18" s="4">
-        <f t="shared" si="9"/>
-        <v>116857.10333888601</v>
+        <f t="shared" si="10"/>
+        <v>107861.94576290752</v>
       </c>
       <c r="DU18" s="4">
-        <f t="shared" si="9"/>
-        <v>119194.24540566374</v>
+        <f t="shared" si="10"/>
+        <v>110019.18467816566</v>
       </c>
       <c r="DV18" s="4">
-        <f t="shared" si="9"/>
-        <v>121578.13031377702</v>
+        <f t="shared" si="10"/>
+        <v>112219.56837172898</v>
       </c>
       <c r="DW18" s="4">
-        <f t="shared" si="9"/>
-        <v>124009.69292005256</v>
+        <f t="shared" si="10"/>
+        <v>114463.95973916356</v>
       </c>
       <c r="DX18" s="4">
-        <f t="shared" si="9"/>
-        <v>126489.88677845361</v>
+        <f t="shared" si="10"/>
+        <v>116753.23893394684</v>
       </c>
       <c r="DY18" s="4">
-        <f t="shared" si="9"/>
-        <v>129019.68451402268</v>
+        <f t="shared" si="10"/>
+        <v>119088.30371262577</v>
       </c>
       <c r="DZ18" s="4">
-        <f t="shared" si="9"/>
-        <v>131600.07820430314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:130" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>121470.06978687829</v>
+      </c>
+      <c r="EA18" s="4">
+        <f t="shared" si="10"/>
+        <v>123899.47118261586</v>
+      </c>
+      <c r="EB18" s="4">
+        <f t="shared" si="10"/>
+        <v>126377.46060626819</v>
+      </c>
+      <c r="EC18" s="4">
+        <f t="shared" si="10"/>
+        <v>128905.00981839355</v>
+      </c>
+      <c r="ED18" s="4">
+        <f t="shared" si="10"/>
+        <v>131483.11001476142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:N19" si="10">+C18/C20</f>
+        <f t="shared" ref="C19:O19" si="11">+C18/C20</f>
         <v>1.5733343984662087</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5851201031758828</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3735241792010351</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3658930373360243</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8261150614091792</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9077134986225894</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5176765633848395</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2685057843216569</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6058394160583942</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8823481550791261</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2262165450121663</v>
+        <f t="shared" si="11"/>
+        <v>1.4535880480039185</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="10"/>
-        <v>1.5837150644806965</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" ref="P19:V19" si="11">+P18/P20</f>
+        <f t="shared" si="11"/>
+        <v>1.3675423520746377</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8397078135259355</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19:Z19" si="12">+T18/T20</f>
         <v>4.8206339830675331</v>
       </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="11"/>
+      <c r="U19" s="2">
+        <f t="shared" si="12"/>
         <v>4.9611546957117829</v>
       </c>
-      <c r="R19" s="2">
-        <f t="shared" si="11"/>
+      <c r="V19" s="2">
+        <f t="shared" si="12"/>
         <v>5.5001922337562474</v>
       </c>
-      <c r="S19" s="2">
-        <f t="shared" si="11"/>
+      <c r="W19" s="2">
+        <f t="shared" si="12"/>
         <v>5.8057655954631384</v>
       </c>
-      <c r="T19" s="2">
-        <f t="shared" si="11"/>
+      <c r="X19" s="2">
+        <f t="shared" si="12"/>
         <v>5.9144298688193739</v>
       </c>
-      <c r="U19" s="2">
-        <f t="shared" si="11"/>
+      <c r="Y19" s="2">
+        <f t="shared" si="12"/>
         <v>6.5192945554566784</v>
       </c>
-      <c r="V19" s="2">
-        <f t="shared" si="11"/>
-        <v>6.3072210243684141</v>
-      </c>
-    </row>
-    <row r="20" spans="2:130" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="2">
+        <f t="shared" si="12"/>
+        <v>6.3384892380718547</v>
+      </c>
+    </row>
+    <row r="20" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
@@ -2386,186 +2542,203 @@
         <v>2458.1</v>
       </c>
       <c r="M20" s="4">
-        <v>2466</v>
+        <v>2449.8000000000002</v>
       </c>
       <c r="N20" s="4">
-        <v>2458.1</v>
-      </c>
-      <c r="P20" s="9">
+        <v>2443.8000000000002</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2436.8000000000002</v>
+      </c>
+      <c r="T20" s="9">
         <v>2539.5</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="U20" s="9">
         <v>2625.8</v>
       </c>
-      <c r="R20" s="9">
+      <c r="V20" s="9">
         <v>2601</v>
       </c>
-      <c r="S20" s="9">
+      <c r="W20" s="9">
         <v>2539.1999999999998</v>
       </c>
-      <c r="T20" s="9">
+      <c r="X20" s="9">
         <f>+F20</f>
         <v>2477.5</v>
       </c>
-      <c r="U20" s="9">
+      <c r="Y20" s="9">
         <f>+J20</f>
         <v>2472.1999999999998</v>
       </c>
-      <c r="V20" s="9">
+      <c r="Z20" s="9">
         <f>+N20</f>
-        <v>2458.1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="2:130" x14ac:dyDescent="0.25">
+        <v>2443.8000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:134" x14ac:dyDescent="0.25">
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ref="G22:N22" si="12">+G10/C10-1</f>
+        <f t="shared" ref="G22:O22" si="13">+G10/C10-1</f>
         <v>6.1080923733747294E-2</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2157127039907474E-2</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.3284831572651967E-3</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0704033474432384E-3</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.1268346211879043E-3</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.052143090340941E-2</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="12"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="13"/>
+        <v>-2.0747709829165628E-2</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="12"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="12">
-        <f t="shared" ref="Q22:V22" si="13">+Q10/P10-1</f>
+        <f t="shared" si="13"/>
+        <v>1.748575325118118E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="13"/>
+        <v>2.9856925978746007E-2</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="12">
+        <f t="shared" ref="U22:Z22" si="14">+U10/T10-1</f>
         <v>4.8253649311506441E-2</v>
       </c>
-      <c r="R22" s="12">
-        <f t="shared" si="13"/>
+      <c r="V22" s="12">
+        <f t="shared" si="14"/>
         <v>7.284002818886548E-2</v>
       </c>
-      <c r="S22" s="12">
-        <f t="shared" si="13"/>
+      <c r="W22" s="12">
+        <f t="shared" si="14"/>
         <v>5.3456475472293041E-2</v>
       </c>
-      <c r="T22" s="12">
-        <f t="shared" si="13"/>
+      <c r="X22" s="12">
+        <f t="shared" si="14"/>
         <v>2.268447503959492E-2</v>
       </c>
-      <c r="U22" s="12">
-        <f t="shared" si="13"/>
+      <c r="Y22" s="12">
+        <f t="shared" si="14"/>
         <v>2.4778674731117167E-2</v>
       </c>
-      <c r="V22" s="12">
-        <f t="shared" si="13"/>
-        <v>1.8179633023156283E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:130" x14ac:dyDescent="0.25">
+      <c r="Z22" s="12">
+        <f t="shared" si="14"/>
+        <v>2.9272471976962144E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:G23" si="14">+C12/C10</f>
+        <f t="shared" ref="C23:G23" si="15">+C12/C10</f>
         <v>0.47380166893071995</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.47542483030857363</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.48156268686466014</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.48362769425388019</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.51986648987243378</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:N23" si="15">+H12/H10</f>
+        <f t="shared" ref="H23:O23" si="16">+H12/H10</f>
         <v>0.52688773844503523</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.51200792275315676</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.49598168623057814</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52058701752771774</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52387916457200312</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="15"/>
-        <v>0.4990108577293717</v>
+        <f t="shared" si="16"/>
+        <v>0.5098098705501618</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="15"/>
-        <v>0.50735165813666572</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" ref="P23:Q23" si="16">+P12/P10</f>
+        <f t="shared" si="16"/>
+        <v>0.49109621828626138</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="16"/>
+        <v>0.51366925757169657</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="T23" s="6">
+        <f t="shared" ref="T23:U23" si="17">+T12/T10</f>
         <v>0.48631877548608238</v>
       </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="16"/>
+      <c r="U23" s="6">
+        <f t="shared" si="17"/>
         <v>0.5031712473572939</v>
       </c>
-      <c r="R23" s="6">
-        <f t="shared" ref="R23:S23" si="17">+R12/R10</f>
+      <c r="V23" s="6">
+        <f t="shared" ref="V23:W23" si="18">+V12/V10</f>
         <v>0.51249375968890409</v>
       </c>
-      <c r="S23" s="6">
-        <f t="shared" si="17"/>
+      <c r="W23" s="6">
+        <f t="shared" si="18"/>
         <v>0.47426640228465961</v>
       </c>
-      <c r="T23" s="6">
-        <f t="shared" ref="T23:V23" si="18">+T12/T10</f>
+      <c r="X23" s="6">
+        <f t="shared" ref="X23:Z23" si="19">+X12/X10</f>
         <v>0.47857473843377313</v>
       </c>
-      <c r="U23" s="6">
-        <f t="shared" si="18"/>
+      <c r="Y23" s="6">
+        <f t="shared" si="19"/>
         <v>0.51393417263618835</v>
       </c>
-      <c r="V23" s="6">
-        <f t="shared" si="18"/>
-        <v>0.51291275554316218</v>
-      </c>
-    </row>
-    <row r="24" spans="2:130" x14ac:dyDescent="0.25">
+      <c r="Z23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.51160362583645769</v>
+      </c>
+    </row>
+    <row r="24" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2574,206 +2747,213 @@
         <v>0.21172703622173303</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:N24" si="19">+D17/D16</f>
+        <f t="shared" ref="D24:O24" si="20">+D17/D16</f>
         <v>0.18655635987590485</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.20778917910447761</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.2005669737774628</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.22082399586278229</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.17918772877810701</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.18274885645828795</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.1894546394417162</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.22957198443579765</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.2081122710936163</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="19"/>
-        <v>0.2806950771316768</v>
+        <f t="shared" si="20"/>
+        <v>0.20013477088948786</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="19"/>
-        <v>0.23801461362751103</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" ref="P24:Q24" si="20">+P17/P16</f>
+        <f t="shared" si="20"/>
+        <v>0.2132768361581921</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="20"/>
+        <v>0.22264608982139761</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="6">
+        <f t="shared" ref="T24:U24" si="21">+T17/T16</f>
         <v>0.15068683224642709</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="20"/>
+      <c r="U24" s="6">
+        <f t="shared" si="21"/>
         <v>0.17727674624226347</v>
       </c>
-      <c r="R24" s="6">
-        <f t="shared" ref="R24:S24" si="21">+R17/R16</f>
+      <c r="V24" s="6">
+        <f t="shared" ref="V24:W24" si="22">+V17/V16</f>
         <v>0.18785126312801589</v>
       </c>
-      <c r="S24" s="6">
-        <f t="shared" si="21"/>
+      <c r="W24" s="6">
+        <f t="shared" si="22"/>
         <v>0.18077243678799668</v>
       </c>
-      <c r="T24" s="6">
-        <f t="shared" ref="T24:V24" si="22">+T17/T16</f>
+      <c r="X24" s="6">
+        <f t="shared" ref="X24:Z24" si="23">+X17/X16</f>
         <v>0.20160191794257071</v>
       </c>
-      <c r="U24" s="6">
-        <f t="shared" si="22"/>
+      <c r="Y24" s="6">
+        <f t="shared" si="23"/>
         <v>0.19406940694069408</v>
       </c>
-      <c r="V24" s="6">
-        <f t="shared" si="22"/>
-        <v>0.23610819589096849</v>
-      </c>
-    </row>
-    <row r="25" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="Y25" s="1" t="s">
+      <c r="Z24" s="6">
+        <f t="shared" si="23"/>
+        <v>0.21302646954224458</v>
+      </c>
+    </row>
+    <row r="25" spans="2:134" x14ac:dyDescent="0.25">
+      <c r="AC25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AD25" s="6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:130" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="4">
+      <c r="T26" s="4">
         <v>15242</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="U26" s="4">
         <v>17403</v>
       </c>
-      <c r="R26" s="4">
+      <c r="V26" s="4">
         <v>18371</v>
       </c>
-      <c r="S26" s="9">
+      <c r="W26" s="9">
         <v>16723</v>
       </c>
-      <c r="T26" s="9">
+      <c r="X26" s="9">
         <v>16848</v>
       </c>
-      <c r="U26" s="9">
+      <c r="Y26" s="9">
         <v>19846</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="AC26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AD26" s="6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="2:130" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P27" s="4">
+      <c r="T27" s="4">
         <v>3347</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="U27" s="4">
         <v>3073</v>
       </c>
-      <c r="R27" s="4">
+      <c r="V27" s="4">
         <v>2787</v>
       </c>
-      <c r="S27" s="9">
+      <c r="W27" s="9">
         <v>3156</v>
       </c>
-      <c r="T27" s="9">
+      <c r="X27" s="9">
         <v>3062</v>
       </c>
-      <c r="U27" s="9">
+      <c r="Y27" s="9">
         <v>3322</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z27" s="4">
-        <f>NPV(Z26,W18:DZ18)-Main!M5+Main!M6</f>
-        <v>414166.08862037852</v>
-      </c>
-    </row>
-    <row r="28" spans="2:130" x14ac:dyDescent="0.25">
+      <c r="AD27" s="4">
+        <f>NPV(AD26,AA18:ED18)-Main!M5+Main!M6</f>
+        <v>413570.2139884379</v>
+      </c>
+    </row>
+    <row r="28" spans="2:134" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" ref="P28:U28" si="23">+P26-P27</f>
+      <c r="T28" s="4">
+        <f t="shared" ref="T28:Y28" si="24">+T26-T27</f>
         <v>11895</v>
       </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="23"/>
+      <c r="U28" s="4">
+        <f t="shared" si="24"/>
         <v>14330</v>
       </c>
-      <c r="R28" s="4">
-        <f t="shared" si="23"/>
+      <c r="V28" s="4">
+        <f t="shared" si="24"/>
         <v>15584</v>
       </c>
-      <c r="S28" s="9">
-        <f t="shared" si="23"/>
+      <c r="W28" s="9">
+        <f t="shared" si="24"/>
         <v>13567</v>
       </c>
-      <c r="T28" s="9">
-        <f t="shared" si="23"/>
+      <c r="X28" s="9">
+        <f t="shared" si="24"/>
         <v>13786</v>
       </c>
-      <c r="U28" s="9">
-        <f t="shared" si="23"/>
+      <c r="Y28" s="9">
+        <f t="shared" si="24"/>
         <v>16524</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z28" s="2">
-        <f>Z27/Main!M3</f>
-        <v>176.65116795273397</v>
-      </c>
-    </row>
-    <row r="29" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="Q29" s="6">
-        <f>+Q28/P28-1</f>
-        <v>0.20470786044556544</v>
-      </c>
-      <c r="R29" s="6">
-        <f>+R28/Q28-1</f>
-        <v>8.7508722958827612E-2</v>
-      </c>
-      <c r="S29" s="6">
-        <f>+S28/R28-1</f>
-        <v>-0.12942761806981518</v>
-      </c>
-      <c r="T29" s="6">
-        <f>+T28/S28-1</f>
-        <v>1.6142109530478344E-2</v>
-      </c>
+      <c r="AD28" s="2">
+        <f>AD27/Main!M3</f>
+        <v>169.7046425886081</v>
+      </c>
+    </row>
+    <row r="29" spans="2:134" x14ac:dyDescent="0.25">
       <c r="U29" s="6">
         <f>+U28/T28-1</f>
+        <v>0.20470786044556544</v>
+      </c>
+      <c r="V29" s="6">
+        <f>+V28/U28-1</f>
+        <v>8.7508722958827612E-2</v>
+      </c>
+      <c r="W29" s="6">
+        <f>+W28/V28-1</f>
+        <v>-0.12942761806981518</v>
+      </c>
+      <c r="X29" s="6">
+        <f>+X28/W28-1</f>
+        <v>1.6142109530478344E-2</v>
+      </c>
+      <c r="Y29" s="6">
+        <f>+Y28/X28-1</f>
         <v>0.19860728275061668</v>
       </c>
     </row>
-    <row r="30" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="U30" s="12">
-        <f>RATE(5,0,-P28,U28)</f>
+    <row r="30" spans="2:134" x14ac:dyDescent="0.25">
+      <c r="Y30" s="12">
+        <f>RATE(5,0,-T28,Y28)</f>
         <v>6.7948101392961174E-2</v>
       </c>
     </row>
